--- a/data/trans_orig/IP1008-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F61620-5603-4271-93DB-05B58B4EC62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC03A3A6-28EC-4AD9-B0F6-0AEAD2EB1603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0B6FC08F-E6E0-448F-BD30-22CD8D502FB0}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{13266AA5-8085-4605-ACAD-9DCE751A03C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,45 @@
     <t>1,25%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -157,45 +196,6 @@
     <t>1,38%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
     <t>98,77%</t>
   </si>
   <si>
@@ -283,9 +283,30 @@
     <t>1,15%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
     <t>99,04%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>97,63%</t>
   </si>
   <si>
@@ -304,9 +325,6 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>2,37%</t>
   </si>
   <si>
@@ -325,24 +343,6 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>99,56%</t>
   </si>
   <si>
@@ -400,6 +400,24 @@
     <t>0,66%</t>
   </si>
   <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>99,31%</t>
   </si>
   <si>
@@ -440,24 +458,6 @@
   </si>
   <si>
     <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -897,7 +897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D622543-AB91-48B9-9FDE-6AD66FB301C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2A2A1-B1D3-494E-9DEF-AFEBE8A8BE60}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1170,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>280145</v>
+        <v>216671</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1185,10 +1185,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="I7" s="7">
-        <v>263551</v>
+        <v>204053</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1197,22 +1197,22 @@
         <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>630</v>
+      </c>
+      <c r="N7" s="7">
+        <v>420724</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="7">
-        <v>811</v>
-      </c>
-      <c r="N7" s="7">
-        <v>543696</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1353</v>
+        <v>1370</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
@@ -1236,31 +1236,31 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2052</v>
+        <v>1169</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2539</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3405</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -1272,10 +1272,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1287,10 +1287,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1302,10 +1302,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1325,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>216671</v>
+        <v>280145</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
@@ -1340,10 +1340,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="I10" s="7">
-        <v>204053</v>
+        <v>263551</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>42</v>
@@ -1352,22 +1352,22 @@
         <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>630</v>
+        <v>811</v>
       </c>
       <c r="N10" s="7">
-        <v>420724</v>
+        <v>543696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>46</v>
@@ -1391,31 +1391,31 @@
         <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1169</v>
+        <v>2052</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3405</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2539</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>51</v>
@@ -1427,10 +1427,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1442,10 +1442,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1457,10 +1457,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1486,7 +1486,7 @@
         <v>718599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
@@ -1537,7 +1537,7 @@
         <v>4101</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>60</v>
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9BF2E7-A373-4C29-BDB7-1BDDCFB5BD78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D6C51-4A07-40D1-A86E-13F26D307475}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1916,49 +1916,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>267761</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>318</v>
+      </c>
+      <c r="I7" s="7">
+        <v>227391</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7">
-        <v>360</v>
-      </c>
-      <c r="I7" s="7">
-        <v>252812</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>754</v>
+        <v>650</v>
       </c>
       <c r="N7" s="7">
-        <v>520573</v>
+        <v>467491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,49 +1967,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2593</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1390</v>
+        <v>787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>3983</v>
+        <v>787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,10 +2018,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -2033,10 +2033,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -2048,10 +2048,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2071,49 +2071,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>267761</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="I10" s="7">
-        <v>227391</v>
+        <v>252812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>650</v>
+        <v>754</v>
       </c>
       <c r="N10" s="7">
-        <v>467491</v>
+        <v>520573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,49 +2122,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>787</v>
+        <v>1390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="7">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3983</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>787</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2188,10 +2188,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2203,10 +2203,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2389,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F246ECE7-728F-4EEB-930C-5D33CB4BD953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A588614F-CB8E-4144-83D1-FF659D3A5366}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2528,7 +2528,7 @@
         <v>200592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>116</v>
@@ -2543,7 +2543,7 @@
         <v>413755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>117</v>
@@ -2579,7 +2579,7 @@
         <v>676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -2594,7 +2594,7 @@
         <v>676</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
@@ -2662,49 +2662,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>279680</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>359</v>
+      </c>
+      <c r="I7" s="7">
+        <v>234634</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>722</v>
+      </c>
+      <c r="N7" s="7">
+        <v>484686</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="7">
-        <v>368</v>
-      </c>
-      <c r="I7" s="7">
-        <v>262910</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="7">
-        <v>746</v>
-      </c>
-      <c r="N7" s="7">
-        <v>542591</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,49 +2713,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1949</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>4860</v>
+        <v>699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>6808</v>
+        <v>699</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -2779,10 +2779,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -2794,10 +2794,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2817,49 +2817,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D10" s="7">
-        <v>250052</v>
+        <v>279680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="I10" s="7">
-        <v>234634</v>
+        <v>262910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="N10" s="7">
-        <v>484686</v>
+        <v>542591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,46 +2868,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4860</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>699</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6808</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>699</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>139</v>
@@ -2919,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2934,10 +2934,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2949,10 +2949,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2981,7 +2981,7 @@
         <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>141</v>
@@ -3035,7 +3035,7 @@
         <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>

--- a/data/trans_orig/IP1008-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC03A3A6-28EC-4AD9-B0F6-0AEAD2EB1603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41814426-F548-458C-B392-6513A0BDC9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{13266AA5-8085-4605-ACAD-9DCE751A03C5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{992737AA-391A-418C-B17A-B7FF7AF87DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,445 +67,541 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
     <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
   </si>
 </sst>
 </file>
@@ -516,7 +612,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -612,39 +708,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -696,7 +792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -807,13 +903,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -822,6 +911,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -886,19 +982,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2A2A1-B1D3-494E-9DEF-AFEBE8A8BE60}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823E11D-46CF-434F-9359-DFA43B24BF41}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1015,10 +1131,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>221783</v>
+        <v>705</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1030,13 +1146,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1045,19 +1161,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>652</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>431979</v>
+        <v>705</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1066,10 +1182,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>1378</v>
+        <v>120675</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1081,13 +1197,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1096,19 +1212,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>1378</v>
+        <v>226846</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1117,49 +1233,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,49 +1286,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>216671</v>
+        <v>1358</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>204053</v>
+        <v>642</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>420724</v>
+        <v>2000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1221,49 +1337,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>1370</v>
+        <v>252398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>378</v>
       </c>
       <c r="I8" s="7">
-        <v>1169</v>
+        <v>252563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>2539</v>
+        <v>504961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,102 +1388,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>280145</v>
+        <v>1358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>391</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>263551</v>
+        <v>527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>811</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>543696</v>
+        <v>1885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,49 +1492,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>1353</v>
+        <v>140157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>2052</v>
+        <v>127021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="N11" s="7">
-        <v>3405</v>
+        <v>267178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,102 +1543,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1080</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>718599</v>
+        <v>680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>1013</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>677801</v>
+        <v>2052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
-        <v>2093</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1396400</v>
+        <v>2731</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,49 +1647,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="D14" s="7">
-        <v>4101</v>
+        <v>205369</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="I14" s="7">
-        <v>3220</v>
+        <v>192045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>592</v>
       </c>
       <c r="N14" s="7">
-        <v>7321</v>
+        <v>397415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,55 +1698,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4101</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3220</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7321</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1080</v>
+      </c>
+      <c r="D17" s="7">
+        <v>718599</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="I17" s="7">
+        <v>677801</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2093</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1396400</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1643,8 +1920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D6C51-4A07-40D1-A86E-13F26D307475}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EEF482-E139-4AD9-8691-FCBDBDFA00C6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1660,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1761,49 +2038,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>237014</v>
+        <v>674</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>223227</v>
+        <v>627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M4" s="7">
-        <v>670</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>460241</v>
+        <v>1301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,49 +2089,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="D5" s="7">
-        <v>674</v>
+        <v>143839</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="I5" s="7">
-        <v>1321</v>
+        <v>145654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="N5" s="7">
-        <v>1995</v>
+        <v>289493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,49 +2140,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,49 +2193,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>227391</v>
+        <v>1480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
-        <v>650</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>467491</v>
+        <v>1480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,49 +2244,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>787</v>
+        <v>232996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>706</v>
       </c>
       <c r="N8" s="7">
-        <v>787</v>
+        <v>500096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,102 +2295,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>267761</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>252812</v>
+        <v>1390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
-        <v>754</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>520573</v>
+        <v>1390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,49 +2399,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>2593</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>1390</v>
+        <v>153444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>446</v>
       </c>
       <c r="N11" s="7">
-        <v>3983</v>
+        <v>312015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,102 +2450,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1061</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>744875</v>
+        <v>2593</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
-        <v>1013</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>703430</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
-        <v>2074</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1448305</v>
+        <v>2593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,49 +2554,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="D14" s="7">
-        <v>3267</v>
+        <v>175364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>3498</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>501</v>
       </c>
       <c r="N14" s="7">
-        <v>6765</v>
+        <v>346701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,55 +2605,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3267</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3498</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6765</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>744875</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="I17" s="7">
+        <v>703430</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2074</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1448305</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2389,8 +2827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A588614F-CB8E-4144-83D1-FF659D3A5366}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A0A59-F8C8-497D-B1B7-D74549771DDF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2406,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2507,49 +2945,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>200592</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>413755</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,49 +2996,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>676</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>676</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,49 +3047,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,49 +3100,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
-        <v>359</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>234634</v>
+        <v>1375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
-        <v>722</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>484686</v>
+        <v>1375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,49 +3151,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>258061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="I8" s="7">
-        <v>699</v>
+        <v>209142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>710</v>
       </c>
       <c r="N8" s="7">
-        <v>699</v>
+        <v>467203</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,102 +3202,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>279680</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>262910</v>
+        <v>2313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>746</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>542591</v>
+        <v>2313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,49 +3306,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>1949</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="I11" s="7">
-        <v>4860</v>
+        <v>186586</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>532</v>
       </c>
       <c r="N11" s="7">
-        <v>6808</v>
+        <v>375158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,102 +3357,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1062</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>742895</v>
+        <v>1949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>1052</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>698136</v>
+        <v>2547</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>2114</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>1441032</v>
+        <v>4496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,49 +3461,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>1949</v>
+        <v>172099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>6235</v>
+        <v>170754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>474</v>
       </c>
       <c r="N14" s="7">
-        <v>8183</v>
+        <v>342852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,55 +3512,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1949</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6235</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8183</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742895</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1052</v>
+      </c>
+      <c r="I17" s="7">
+        <v>698136</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2114</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1441032</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1008-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41814426-F548-458C-B392-6513A0BDC9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D547139B-5683-473A-A92D-19598E9E12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{992737AA-391A-418C-B17A-B7FF7AF87DF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6568DA4C-E68E-48F6-B6D9-3E8133B1A09A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="192">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0%</t>
@@ -100,7 +100,7 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -139,112 +139,124 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -253,124 +265,133 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,36%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -382,10 +403,16 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>99,64%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -394,166 +421,169 @@
     <t>99,26%</t>
   </si>
   <si>
+    <t>98,12%</t>
+  </si>
+  <si>
     <t>99,81%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>96,74%</t>
+    <t>97,08%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>96,24%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -562,46 +592,28 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823E11D-46CF-434F-9359-DFA43B24BF41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3908C17-A9B1-4687-A403-ED1DCE9FB557}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,13 +1629,13 @@
         <v>2052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1632,13 +1644,13 @@
         <v>2731</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1665,10 @@
         <v>205369</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1668,13 +1680,13 @@
         <v>192045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>592</v>
@@ -1683,13 +1695,13 @@
         <v>397415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1769,13 @@
         <v>4101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1772,13 +1784,13 @@
         <v>3220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1787,13 +1799,13 @@
         <v>7321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1820,13 @@
         <v>718599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>1013</v>
@@ -1823,13 +1835,13 @@
         <v>677801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -1838,13 +1850,13 @@
         <v>1396400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,7 +1912,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EEF482-E139-4AD9-8691-FCBDBDFA00C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F86380-B318-44F2-B450-DC5E94763C47}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1937,7 +1949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2044,13 +2056,13 @@
         <v>674</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2059,13 +2071,13 @@
         <v>627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2074,13 +2086,13 @@
         <v>1301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,10 +2107,10 @@
         <v>143839</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2110,10 +2122,10 @@
         <v>145654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2125,10 +2137,10 @@
         <v>289493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2205,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2214,13 +2226,13 @@
         <v>1480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2229,13 +2241,13 @@
         <v>1480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,7 +2265,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2265,10 +2277,10 @@
         <v>232996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2280,10 +2292,10 @@
         <v>500096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -2360,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2369,13 +2381,13 @@
         <v>1390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2384,13 +2396,13 @@
         <v>1390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2420,10 +2432,10 @@
         <v>153444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2435,10 +2447,10 @@
         <v>312015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -2509,13 +2521,13 @@
         <v>2593</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2530,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2539,13 +2551,13 @@
         <v>2593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2572,13 @@
         <v>175364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -2578,7 +2590,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2590,13 +2602,13 @@
         <v>346701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2676,13 @@
         <v>3267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2679,13 +2691,13 @@
         <v>3498</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2694,13 +2706,13 @@
         <v>6765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2727,13 @@
         <v>744875</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>1013</v>
@@ -2730,13 +2742,13 @@
         <v>703430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>2074</v>
@@ -2745,13 +2757,13 @@
         <v>1448305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2819,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A0A59-F8C8-497D-B1B7-D74549771DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9338B9E7-0705-44D1-9F87-CDB4A37B1A2A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2844,7 +2856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2957,7 +2969,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2972,7 +2984,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2987,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,7 +3017,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3020,7 +3032,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3035,7 +3047,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3112,7 +3124,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3121,13 +3133,13 @@
         <v>1375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3136,13 +3148,13 @@
         <v>1375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3172,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -3172,10 +3184,10 @@
         <v>209142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3187,10 +3199,10 @@
         <v>467203</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3267,7 +3279,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3276,13 +3288,13 @@
         <v>2313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3291,13 +3303,13 @@
         <v>2313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,7 +3327,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3327,13 +3339,13 @@
         <v>186586</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>532</v>
@@ -3342,13 +3354,13 @@
         <v>375158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3428,13 @@
         <v>1949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3431,13 +3443,13 @@
         <v>2547</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3446,13 +3458,13 @@
         <v>4496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3479,13 @@
         <v>172099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -3482,13 +3494,13 @@
         <v>170754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>474</v>
@@ -3497,13 +3509,13 @@
         <v>342852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3583,13 @@
         <v>1949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3586,13 +3598,13 @@
         <v>6235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3601,13 +3613,13 @@
         <v>8183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3634,13 @@
         <v>742895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>1052</v>
@@ -3637,13 +3649,13 @@
         <v>698136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>2114</v>
@@ -3652,13 +3664,13 @@
         <v>1441032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,7 +3726,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1008-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1008-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D547139B-5683-473A-A92D-19598E9E12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C75EDFF-6AEE-4FB4-A9F8-492C5623E9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6568DA4C-E68E-48F6-B6D9-3E8133B1A09A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{15B38956-63FA-4056-9976-5E7334D68BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,316 +73,307 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>1,46%</t>
@@ -391,70 +382,61 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>96,41%</t>
+    <t>96,69%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,24%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>99,76%</t>
+    <t>99,77%</t>
   </si>
   <si>
     <t>Menores según si padecen trastornos de huesos, articulaciones o musculos en 2016 (Tasa respuesta: 100,0%)</t>
@@ -463,97 +445,94 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,12%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,29%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -562,58 +541,67 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>97,04%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
+    <t>99,23%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>99,06%</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3908C17-A9B1-4687-A403-ED1DCE9FB557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D775371D-47DE-4793-B1BA-44FD65855D3D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1143,10 +1131,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1158,16 +1146,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1182,7 +1170,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1194,10 +1182,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>120675</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1209,19 +1197,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>120675</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>343</v>
@@ -1236,7 +1224,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1245,34 +1233,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>344</v>
@@ -1281,13 +1269,13 @@
         <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,34 +1286,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1358</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1358</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>642</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -1334,13 +1322,13 @@
         <v>2000</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,34 +1337,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>378</v>
+      </c>
+      <c r="D8" s="7">
+        <v>252563</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>252398</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>378</v>
-      </c>
-      <c r="I8" s="7">
-        <v>252563</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -1385,13 +1373,13 @@
         <v>504961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,34 +1388,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
@@ -1436,51 +1424,51 @@
         <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>527</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1358</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>527</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1489,13 +1477,13 @@
         <v>1885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,34 +1492,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>190</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127021</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>210</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>140157</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>190</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127021</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>400</v>
@@ -1540,13 +1528,13 @@
         <v>267178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,34 +1543,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>403</v>
@@ -1591,51 +1579,51 @@
         <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2052</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>680</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2052</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1644,13 +1632,13 @@
         <v>2731</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,34 +1647,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>283</v>
+      </c>
+      <c r="D14" s="7">
+        <v>192045</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7">
         <v>309</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>205369</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>283</v>
-      </c>
-      <c r="I14" s="7">
-        <v>192045</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>592</v>
@@ -1695,13 +1683,13 @@
         <v>397415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,34 +1698,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -1746,13 +1734,13 @@
         <v>400146</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,34 +1751,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3220</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4101</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3220</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1799,13 +1787,13 @@
         <v>7321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,34 +1802,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="D17" s="7">
+        <v>677801</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
         <v>1080</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>718599</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I17" s="7">
-        <v>677801</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -1850,10 +1838,10 @@
         <v>1396400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>82</v>
@@ -1865,34 +1853,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>2104</v>
@@ -1901,18 +1889,18 @@
         <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F86380-B318-44F2-B450-DC5E94763C47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D145E5E-4718-4593-B0B0-AF33ADCFAA9C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2053,31 +2041,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>627</v>
+        <v>674</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2086,13 +2074,13 @@
         <v>1301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,34 +2089,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>217</v>
+      </c>
+      <c r="D5" s="7">
+        <v>145654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>204</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>143839</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>217</v>
-      </c>
-      <c r="I5" s="7">
-        <v>145654</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>421</v>
@@ -2137,13 +2125,13 @@
         <v>289493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,34 +2140,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>423</v>
@@ -2188,13 +2176,13 @@
         <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,34 +2193,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1480</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1480</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2241,13 +2229,13 @@
         <v>1480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,31 +2244,31 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>335</v>
+      </c>
+      <c r="D8" s="7">
+        <v>232996</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>267101</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>335</v>
-      </c>
-      <c r="I8" s="7">
-        <v>232996</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2292,13 +2280,13 @@
         <v>500096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,34 +2295,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>708</v>
@@ -2343,51 +2331,51 @@
         <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1390</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2396,13 +2384,13 @@
         <v>1390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,31 +2399,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>218</v>
+      </c>
+      <c r="D11" s="7">
+        <v>153444</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>228</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158571</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>218</v>
-      </c>
-      <c r="I11" s="7">
-        <v>153444</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2447,13 +2435,13 @@
         <v>312015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,34 +2450,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>448</v>
@@ -2498,51 +2486,51 @@
         <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2593</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2551,13 +2539,13 @@
         <v>2593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,34 +2554,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>258</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>175364</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -2602,13 +2590,13 @@
         <v>346701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,34 +2605,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>505</v>
@@ -2653,13 +2641,13 @@
         <v>349294</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,31 +2661,31 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3267</v>
+        <v>3498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3498</v>
+        <v>3267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2706,13 +2694,13 @@
         <v>6765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,34 +2709,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1013</v>
+      </c>
+      <c r="D17" s="7">
+        <v>703430</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="7">
         <v>1061</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>744875</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703430</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>2074</v>
@@ -2757,13 +2745,13 @@
         <v>1448305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,34 +2760,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>2084</v>
@@ -2808,18 +2796,18 @@
         <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9338B9E7-0705-44D1-9F87-CDB4A37B1A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DBD772-2E7A-40FD-B275-08F3324CAF9B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2856,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2963,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2978,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2993,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,34 +2996,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>398</v>
@@ -3044,13 +3032,13 @@
         <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,34 +3047,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>398</v>
@@ -3095,13 +3083,13 @@
         <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,34 +3100,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1375</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1375</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3148,13 +3136,13 @@
         <v>1375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,31 +3151,31 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>330</v>
+      </c>
+      <c r="D8" s="7">
+        <v>209142</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>258061</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>330</v>
-      </c>
-      <c r="I8" s="7">
-        <v>209142</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3199,13 +3187,13 @@
         <v>467203</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,34 +3202,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>712</v>
@@ -3250,51 +3238,51 @@
         <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2313</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2313</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3303,13 +3291,13 @@
         <v>2313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,34 +3306,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>269</v>
+      </c>
+      <c r="D11" s="7">
+        <v>186586</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
         <v>263</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>188572</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>269</v>
-      </c>
-      <c r="I11" s="7">
-        <v>186586</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>532</v>
@@ -3354,13 +3342,13 @@
         <v>375158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,34 +3357,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3405,51 +3393,51 @@
         <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2547</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1949</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2547</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3458,13 +3446,13 @@
         <v>4496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,34 +3461,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>242</v>
+      </c>
+      <c r="D14" s="7">
+        <v>170754</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="7">
         <v>232</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>172099</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="7">
-        <v>242</v>
-      </c>
-      <c r="I14" s="7">
-        <v>170754</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>474</v>
@@ -3509,13 +3497,13 @@
         <v>342852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,34 +3512,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>481</v>
@@ -3560,13 +3548,13 @@
         <v>347348</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,34 +3565,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6235</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1949</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6235</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3613,13 +3601,13 @@
         <v>8183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,34 +3616,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1052</v>
+      </c>
+      <c r="D17" s="7">
+        <v>698136</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7">
         <v>1062</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>742895</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1052</v>
-      </c>
-      <c r="I17" s="7">
-        <v>698136</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>2114</v>
@@ -3664,13 +3652,13 @@
         <v>1441032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,34 +3667,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>2126</v>
@@ -3715,18 +3703,18 @@
         <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
